--- a/timetabling_GA/results/HK2_CT03/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK2_CT03/TKB_HocKy_PhongHoc.xlsx
@@ -598,8 +598,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -607,7 +607,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -615,7 +616,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -624,25 +624,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -756,8 +756,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -765,7 +765,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -773,7 +774,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -782,25 +782,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -914,8 +914,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -923,7 +923,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -931,7 +932,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -940,25 +940,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -1072,8 +1072,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1081,7 +1081,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -1089,7 +1090,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1098,25 +1098,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -1230,8 +1230,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1239,7 +1239,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -1247,7 +1248,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1256,25 +1256,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -1388,8 +1388,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1397,7 +1397,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -1405,7 +1406,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1414,25 +1414,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -1546,8 +1546,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1555,7 +1555,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -1563,7 +1564,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1572,25 +1572,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -1704,8 +1704,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1713,7 +1713,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -1721,7 +1722,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1730,25 +1730,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -1862,8 +1862,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1871,7 +1871,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -1879,7 +1880,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -1888,25 +1888,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2020,8 +2020,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2029,7 +2029,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -2037,7 +2038,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2046,25 +2046,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2178,8 +2178,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2187,7 +2187,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -2195,7 +2196,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2204,25 +2204,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2336,8 +2336,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2345,7 +2345,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -2353,7 +2354,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2362,25 +2362,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2494,8 +2494,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2503,7 +2503,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -2511,7 +2512,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2520,25 +2520,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2652,8 +2652,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2661,7 +2661,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -2669,7 +2670,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2678,25 +2678,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
@@ -2810,8 +2810,8 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2819,7 +2819,8 @@
           <t>R105</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL10
 Môn: Ngữ pháp tiếng Anh
@@ -2827,7 +2828,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2836,25 +2836,25 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R103</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL05
+Môn: Ngữ pháp tiếng Anh
+GV: Ngô Văn I
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL05
-Môn: Ngữ pháp tiếng Anh
-GV: Ngô Văn I
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
